--- a/data/trans_camb/P19C06-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C06-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.419748771048823</v>
+        <v>-1.353882664141173</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.5500624996970213</v>
+        <v>-0.4955590132878505</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.193229500998351</v>
+        <v>-1.28070052588133</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.077096599592318</v>
+        <v>1.092918060243053</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.056220595693369</v>
+        <v>-0.7799488619437543</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.052273880535083</v>
+        <v>-1.94007660218007</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6010735507508624</v>
+        <v>0.5656643960182869</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.08005355182766942</v>
+        <v>-0.206789609644211</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.9249078468562066</v>
+        <v>-0.9256828459024818</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.793871799521344</v>
+        <v>2.865635959798595</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.839556984562235</v>
+        <v>4.750633737284135</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.956632825878487</v>
+        <v>3.81561304112318</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.354750715387798</v>
+        <v>6.304698475059267</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.588569948523734</v>
+        <v>2.689086020035414</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6743618351456282</v>
+        <v>0.7928300101625982</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.971656914771557</v>
+        <v>3.858328231704701</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.295340934590661</v>
+        <v>3.043436994647141</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.683707400778236</v>
+        <v>1.616360232302831</v>
       </c>
     </row>
     <row r="7">
@@ -779,23 +779,23 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="C8" s="6" t="inlineStr"/>
       <c r="D8" s="6" t="n">
-        <v>-0.6370267856172557</v>
+        <v>-0.8555129021005311</v>
       </c>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.04455487443293699</v>
+        <v>0.05035449643264767</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.443846151603228</v>
-      </c>
-      <c r="K8" s="6" t="inlineStr"/>
+        <v>-0.417781915006936</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.8339504725365391</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -811,10 +811,10 @@
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>14.06386002227784</v>
+        <v>15.54790480351724</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>13.26790713265418</v>
+        <v>13.24249377652575</v>
       </c>
       <c r="K9" s="6" t="inlineStr"/>
     </row>
@@ -845,7 +845,7 @@
         <v>-1.098436743672637</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.5629168064477096</v>
+        <v>-0.5629168064477099</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.6763902869579337</v>
@@ -865,31 +865,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.240335215424845</v>
+        <v>-2.118548668000885</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.226309572983854</v>
+        <v>-3.170719847421349</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.637272765789815</v>
+        <v>-2.548538218601605</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.025752096947761</v>
+        <v>-2.052876930916512</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.474075090250355</v>
+        <v>-2.377056459795385</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.002568454788108</v>
+        <v>-2.035983546550626</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.699231648283159</v>
+        <v>-1.674557589000236</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.267216559482092</v>
+        <v>-2.263330177685551</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.805528756518103</v>
+        <v>-1.756661284759295</v>
       </c>
     </row>
     <row r="12">
@@ -900,31 +900,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7760524927292067</v>
+        <v>0.8464294760938358</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.7182308125099933</v>
+        <v>-0.5227504522926621</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05780574733418334</v>
+        <v>0.08758435794560754</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6747879146578299</v>
+        <v>0.6734924201666136</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.1573256822950525</v>
+        <v>-0.1343019373596622</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.601283748642199</v>
+        <v>0.569606601689761</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3771110939413042</v>
+        <v>0.3406642271060155</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.5737537533609816</v>
+        <v>-0.5626059499039846</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08525615899110339</v>
+        <v>0.03326554341363774</v>
       </c>
     </row>
     <row r="13">
@@ -941,7 +941,7 @@
         <v>-1</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.6978412982908788</v>
+        <v>-0.6978412982908787</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.4935730206677542</v>
@@ -950,7 +950,7 @@
         <v>-0.8143814884427415</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.417346769711615</v>
+        <v>-0.4173467697116152</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.4748734031081457</v>
@@ -981,16 +981,16 @@
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>-0.8547574473854341</v>
+        <v>-0.8659501715626753</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.8326683311959358</v>
+        <v>-0.8209524922852895</v>
       </c>
       <c r="J14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.8614160407330197</v>
+        <v>-0.8407015437738977</v>
       </c>
     </row>
     <row r="15">
@@ -1001,27 +1001,27 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.947738904115459</v>
+        <v>1.632471340032009</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>1.380289482935319</v>
+        <v>1.250768940539928</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.025662951066358</v>
+        <v>2.066725965661095</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>1.398978840489572</v>
+        <v>1.461772165684295</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6081917576263508</v>
+        <v>0.5492074167262704</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2606541987971441</v>
+        <v>-0.4429995544574494</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1668331291938223</v>
+        <v>0.1651548581513882</v>
       </c>
     </row>
     <row r="16">
@@ -1060,7 +1060,7 @@
         <v>-0.3982304897166489</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.5545507003382169</v>
+        <v>0.5545507003382171</v>
       </c>
     </row>
     <row r="17">
@@ -1071,31 +1071,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.257779960575873</v>
+        <v>-1.275580214296348</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.056769905599366</v>
+        <v>-2.465897153047212</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.232094558507675</v>
+        <v>-1.24843903935929</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1735923121738411</v>
+        <v>0.4789492105256378</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.578721380326656</v>
+        <v>-1.603838202982145</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.6676866326897709</v>
+        <v>-0.683818610453062</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.172179931214419</v>
+        <v>0.1830180556584392</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.440174411987721</v>
+        <v>-1.32571511626311</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.4648830033886965</v>
+        <v>-0.4818906577634899</v>
       </c>
     </row>
     <row r="18">
@@ -1106,31 +1106,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.233873018876579</v>
+        <v>2.116954973127013</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5053092272890113</v>
+        <v>0.5125498086253529</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.035553508183721</v>
+        <v>2.103516902226041</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.835216959915174</v>
+        <v>5.08883290583126</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7243797408137079</v>
+        <v>0.7287757480142338</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.943674147720752</v>
+        <v>2.01695839667773</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.311972899877121</v>
+        <v>2.990638495835825</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3555104769938011</v>
+        <v>0.3301223651660755</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.702422828307929</v>
+        <v>1.622199173686197</v>
       </c>
     </row>
     <row r="19">
@@ -1159,13 +1159,13 @@
         <v>1.102128053489266</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>2.011326622262976</v>
+        <v>2.011326622262977</v>
       </c>
       <c r="J19" s="6" t="n">
         <v>-0.5477126603969518</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.7627101571839773</v>
+        <v>0.7627101571839777</v>
       </c>
     </row>
     <row r="20">
@@ -1177,20 +1177,20 @@
       </c>
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="inlineStr"/>
-      <c r="E20" s="6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F20" s="6" t="inlineStr"/>
+      <c r="E20" s="6" t="inlineStr"/>
+      <c r="F20" s="6" t="n">
+        <v>-0.3925408082948548</v>
+      </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.7139229062299339</v>
+        <v>-0.6401129905169843</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1474229947944844</v>
+        <v>-0.2287180027027195</v>
       </c>
       <c r="J20" s="6" t="inlineStr"/>
       <c r="K20" s="6" t="n">
-        <v>-0.4769705362530267</v>
+        <v>-0.4928327616591841</v>
       </c>
     </row>
     <row r="21">
@@ -1207,11 +1207,11 @@
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>11.18502298374477</v>
+        <v>11.10718130506449</v>
       </c>
       <c r="J21" s="6" t="inlineStr"/>
       <c r="K21" s="6" t="n">
-        <v>6.78799911716054</v>
+        <v>7.279563918485878</v>
       </c>
     </row>
     <row r="22">
@@ -1241,7 +1241,7 @@
         <v>-0.4227340307747076</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.8868688334000538</v>
+        <v>-0.8868688334000542</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.8052489465322422</v>
@@ -1261,31 +1261,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.37410876636969</v>
+        <v>-2.225596699874422</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.226284639705659</v>
+        <v>-3.787405165338364</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.035637792093683</v>
+        <v>-2.843218460394482</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.342533230750559</v>
+        <v>-3.314172098270415</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.680784733664198</v>
+        <v>-2.594146935731576</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.745545462274462</v>
+        <v>-3.052059369242262</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.282180004063993</v>
+        <v>-2.15964946778789</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.471422346312287</v>
+        <v>-2.433587169585081</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.211002998096847</v>
+        <v>-2.345093743491155</v>
       </c>
     </row>
     <row r="24">
@@ -1296,31 +1296,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.127010349039768</v>
+        <v>2.012628527721211</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.3456451892225245</v>
+        <v>-0.3338036155089176</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7192195943688814</v>
+        <v>0.7699827498871573</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4250280742490361</v>
+        <v>0.4185619147339636</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.387294197054852</v>
+        <v>1.446746577432462</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8410123839037511</v>
+        <v>0.8314940957994821</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.6215090187152358</v>
+        <v>0.6057137657763504</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.228535151707547</v>
+        <v>0.1984954570808408</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4336805866491791</v>
+        <v>0.3369465662014006</v>
       </c>
     </row>
     <row r="25">
@@ -1346,7 +1346,7 @@
         <v>-0.2156675374752076</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.4524566357063285</v>
+        <v>-0.4524566357063287</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.4553113307970764</v>
@@ -1365,28 +1365,28 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C26" s="6" t="n">
+      <c r="C26" s="6" t="inlineStr"/>
+      <c r="D26" s="6" t="inlineStr"/>
+      <c r="E26" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="D26" s="6" t="inlineStr"/>
-      <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.8613551050233719</v>
+        <v>-0.8224474264203121</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.8817293280490713</v>
+        <v>-0.9127184184122928</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.8739193791346905</v>
+        <v>-0.8520662772836942</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.8901569119397654</v>
+        <v>-0.885824032621619</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.8149207710012605</v>
+        <v>-0.8303828563193072</v>
       </c>
     </row>
     <row r="27">
@@ -1396,28 +1396,28 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C27" s="6" t="n">
-        <v>6.73126095260278</v>
-      </c>
+      <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
-      <c r="E27" s="6" t="inlineStr"/>
+      <c r="E27" s="6" t="n">
+        <v>3.126491510641596</v>
+      </c>
       <c r="F27" s="6" t="n">
-        <v>1.202933775786566</v>
+        <v>1.313041484542933</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.878071878834007</v>
+        <v>1.827788139987607</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.723926844596921</v>
+        <v>1.754305287813207</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.043808018636362</v>
+        <v>0.7913681661627577</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3695474944460164</v>
+        <v>0.4256707589961903</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.7095794875400248</v>
+        <v>0.4667362192845987</v>
       </c>
     </row>
     <row r="28">
@@ -1467,27 +1467,27 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.5859085177837341</v>
+        <v>0.5875777283975768</v>
       </c>
       <c r="D29" s="5" t="inlineStr"/>
       <c r="E29" s="5" t="inlineStr"/>
       <c r="F29" s="5" t="n">
-        <v>-1.752847659818149</v>
+        <v>-1.371262109970281</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.6166149435164457</v>
+        <v>-0.6004931426388584</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.376047056715292</v>
+        <v>-2.849768208820102</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.0658325526740846</v>
+        <v>0.002358465951400605</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.2775550050428459</v>
+        <v>-0.2523243833387265</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.385403022615859</v>
+        <v>-1.197448768681076</v>
       </c>
     </row>
     <row r="30">
@@ -1498,27 +1498,27 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.969141331063065</v>
+        <v>5.464661248943796</v>
       </c>
       <c r="D30" s="5" t="inlineStr"/>
       <c r="E30" s="5" t="inlineStr"/>
       <c r="F30" s="5" t="n">
-        <v>2.036820793853568</v>
+        <v>2.060909400431373</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.572458723254439</v>
+        <v>3.97431120028635</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2071600438174673</v>
+        <v>0.3916753037124782</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.754584066372939</v>
+        <v>2.879656489164518</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.243595211793765</v>
+        <v>2.526311447660495</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2099297263726026</v>
+        <v>0.2094801257677379</v>
       </c>
     </row>
     <row r="31">
@@ -1551,7 +1551,7 @@
         <v>2.245544610062369</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.6433835478565416</v>
+        <v>-0.6433835478565418</v>
       </c>
     </row>
     <row r="32">
@@ -1606,7 +1606,7 @@
         <v>1.487041912206196</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1.144970090769714</v>
+        <v>1.144970090769715</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>0.9793460835246043</v>
@@ -1615,7 +1615,7 @@
         <v>-0.08740750942479847</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>0.6175866040876172</v>
+        <v>0.6175866040876175</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.8370988509153354</v>
@@ -1635,31 +1635,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.6769016439211151</v>
+        <v>-0.8179351726326559</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.2776426686786056</v>
+        <v>-0.4773557691674578</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.1980000236296228</v>
+        <v>-0.4619483816508902</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.6192596727395521</v>
+        <v>-0.5073899274744327</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.542185973747463</v>
+        <v>-1.613846025973788</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.850065034415469</v>
+        <v>-0.9145509597151826</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.3705065879055771</v>
+        <v>-0.3913471481246529</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.5114824887706614</v>
+        <v>-0.3740541312219247</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.1530159818107722</v>
+        <v>-0.2476351324072278</v>
       </c>
     </row>
     <row r="36">
@@ -1670,31 +1670,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.361137874725766</v>
+        <v>2.351236927984905</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.491643570003292</v>
+        <v>4.42727232810025</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.3684425152434</v>
+        <v>3.11927710804841</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.748620952143078</v>
+        <v>3.044880483331984</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.8528767507012569</v>
+        <v>0.8463280802258903</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.919336565359071</v>
+        <v>1.826872005373138</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.035918769127016</v>
+        <v>2.056898265377836</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.210129911003391</v>
+        <v>2.092360713079799</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.011654352183775</v>
+        <v>1.963460295009349</v>
       </c>
     </row>
     <row r="37">
@@ -1720,7 +1720,7 @@
         <v>-0.1726803769870717</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>1.220090680054988</v>
+        <v>1.220090680054989</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>1.690577576679995</v>
@@ -1746,11 +1746,11 @@
       <c r="G38" s="6" t="inlineStr"/>
       <c r="H38" s="6" t="inlineStr"/>
       <c r="I38" s="6" t="n">
-        <v>-0.6060982177143358</v>
+        <v>-0.736940061465491</v>
       </c>
       <c r="J38" s="6" t="inlineStr"/>
       <c r="K38" s="6" t="n">
-        <v>-0.4784591077688495</v>
+        <v>-0.5231897792115329</v>
       </c>
     </row>
     <row r="39">
@@ -1817,31 +1817,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.60769638123709</v>
+        <v>-1.824954531930952</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.025894673430955</v>
+        <v>-1.231370015287405</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.375209357137678</v>
+        <v>-1.367827435501727</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.815728638964086</v>
+        <v>-1.804358628096026</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.658614639305158</v>
+        <v>-1.702295433221533</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-1.225274036860417</v>
+        <v>-1.130353471817532</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.404066843842747</v>
+        <v>-1.388007639017582</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.008452946866443</v>
+        <v>-1.031325879203635</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.7790704397173105</v>
+        <v>-0.8357892408466695</v>
       </c>
     </row>
     <row r="42">
@@ -1852,31 +1852,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.5286902287133062</v>
+        <v>0.4941149072541557</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.904284999068839</v>
+        <v>1.958730799289017</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.8737166669278427</v>
+        <v>0.886963570488266</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.302195518162744</v>
+        <v>1.450783913146737</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.929118287081645</v>
+        <v>1.755518052495809</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.917457564012592</v>
+        <v>1.838185405371073</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.5485457781639637</v>
+        <v>0.523995920808815</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.162590773786333</v>
+        <v>1.23293580431945</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>1.0764063557215</v>
+        <v>1.075336342102185</v>
       </c>
     </row>
     <row r="43">
@@ -1921,28 +1921,28 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C44" s="6" t="inlineStr"/>
+      <c r="C44" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="D44" s="6" t="inlineStr"/>
-      <c r="E44" s="6" t="n">
-        <v>-0.8556007613810134</v>
-      </c>
+      <c r="E44" s="6" t="inlineStr"/>
       <c r="F44" s="6" t="n">
-        <v>-0.6704681324470811</v>
+        <v>-0.6571346729225038</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.6668625188058074</v>
+        <v>-0.6479142002672966</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.4107871975056375</v>
+        <v>-0.4421395533413683</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.6929349548987818</v>
+        <v>-0.6924010259737083</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.5572189355435956</v>
+        <v>-0.5305236989261068</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.3931310997455608</v>
+        <v>-0.4089019994139259</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1952,28 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C45" s="6" t="inlineStr"/>
+      <c r="C45" s="6" t="n">
+        <v>2.674182743413612</v>
+      </c>
       <c r="D45" s="6" t="inlineStr"/>
-      <c r="E45" s="6" t="n">
-        <v>3.266014825348494</v>
-      </c>
+      <c r="E45" s="6" t="inlineStr"/>
       <c r="F45" s="6" t="n">
-        <v>1.661097168281598</v>
+        <v>1.553648698357733</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.909371026101791</v>
+        <v>1.762251947051753</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.00177639073596</v>
+        <v>1.979889516880172</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.6852337194999599</v>
+        <v>0.6355513621281783</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.246636456786227</v>
+        <v>1.270888403386059</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.257225979000126</v>
+        <v>1.289096288644494</v>
       </c>
     </row>
     <row r="46">
@@ -2003,7 +2003,7 @@
         <v>1.504977600854494</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-0.2418652576333167</v>
+        <v>-0.2418652576333168</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-0.3709954386292791</v>
@@ -2012,7 +2012,7 @@
         <v>1.154595114718907</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-0.6015032735839481</v>
+        <v>-0.6015032735839482</v>
       </c>
     </row>
     <row r="47">
@@ -2023,31 +2023,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.064284028576919</v>
+        <v>-2.048082654924465</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.8050560370808727</v>
+        <v>-0.7006607741151718</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-2.358781592285487</v>
+        <v>-2.348883344987004</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.9247390347886921</v>
+        <v>-0.9589927656165179</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>0.146854342822124</v>
+        <v>0.2901582770786539</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-1.15071640961532</v>
+        <v>-1.145490505654234</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-1.206376968765559</v>
+        <v>-1.175830689371342</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>0.1739569501731951</v>
+        <v>0.1413047883355501</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-1.324320692943823</v>
+        <v>-1.353875913853346</v>
       </c>
     </row>
     <row r="48">
@@ -2058,31 +2058,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.3503591145673272</v>
+        <v>0.4050417981084959</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.43506940717334</v>
+        <v>2.468104061985455</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-0.1223735756490078</v>
+        <v>-0.1208302744676047</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.8102752572978952</v>
+        <v>0.8169024734540193</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2.976059724632956</v>
+        <v>2.956903932698318</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0.4279107956629272</v>
+        <v>0.4246013925133175</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.3220941457598092</v>
+        <v>0.3323616640997494</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>2.273183665292267</v>
+        <v>2.199819720219018</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>0.01432610989392016</v>
+        <v>0.0002076143370347692</v>
       </c>
     </row>
     <row r="49">
@@ -2108,7 +2108,7 @@
         <v>2.239358046617849</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.3598876890732096</v>
+        <v>-0.3598876890732098</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.3575148470621171</v>
@@ -2117,7 +2117,7 @@
         <v>1.112641431340823</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.5796468863802263</v>
+        <v>-0.5796468863802264</v>
       </c>
     </row>
     <row r="50">
@@ -2128,29 +2128,29 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.8852429370762054</v>
+        <v>-0.8986872773965062</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.4300792414583074</v>
+        <v>-0.3856480436226564</v>
       </c>
       <c r="E50" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-1</v>
+        <v>-0.8738255608184375</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.01852774603989</v>
+        <v>0.06286348635198799</v>
       </c>
       <c r="H50" s="6" t="inlineStr"/>
       <c r="I50" s="6" t="n">
-        <v>-0.7736708451279947</v>
+        <v>-0.7735520618418918</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.05523490955884965</v>
+        <v>0.01591941932979644</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.8538826219974847</v>
+        <v>-0.8854949199319924</v>
       </c>
     </row>
     <row r="51">
@@ -2161,29 +2161,29 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.9085933188905343</v>
+        <v>0.894744904161907</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>3.141068855781644</v>
+        <v>3.198489516282336</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.2022296040816517</v>
+        <v>0.141209169511682</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>4.075416037731099</v>
+        <v>5.71920434360186</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>11.16263395812988</v>
+        <v>12.48382806624161</v>
       </c>
       <c r="H51" s="6" t="inlineStr"/>
       <c r="I51" s="6" t="n">
-        <v>0.5647372196147482</v>
+        <v>0.7114844341429164</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>3.538002009998921</v>
+        <v>3.270180723727915</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.101780800045134</v>
+        <v>0.1514749588986248</v>
       </c>
     </row>
     <row r="52">
@@ -2204,7 +2204,7 @@
         <v>0.08881778725905887</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>-0.3289684625747576</v>
+        <v>-0.3289684625747574</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>0.305519935882532</v>
@@ -2222,7 +2222,7 @@
         <v>0.1484887351267589</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>-0.177684352982904</v>
+        <v>-0.1776843529829039</v>
       </c>
     </row>
     <row r="53">
@@ -2233,31 +2233,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.6738016598363871</v>
+        <v>-0.6402937778396119</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.5125170531991626</v>
+        <v>-0.5066730274696735</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-0.8968377386162306</v>
+        <v>-0.8402104179782677</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.2715373183878844</v>
+        <v>-0.2895170495690494</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.3792113138223747</v>
+        <v>-0.4004839615074395</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-0.5319977486380527</v>
+        <v>-0.541900806934648</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-0.3177881371854742</v>
+        <v>-0.2828322025497341</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-0.2888981391059252</v>
+        <v>-0.2906701385710667</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-0.5519440046374534</v>
+        <v>-0.5209610849845274</v>
       </c>
     </row>
     <row r="54">
@@ -2268,31 +2268,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.4841239267765829</v>
+        <v>0.4338918745991402</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.747748530951974</v>
+        <v>0.669407464783236</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>0.1745672491501836</v>
+        <v>0.1554441359592744</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>0.8693066546364465</v>
+        <v>0.9102504974324793</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>0.791112400023037</v>
+        <v>0.769549157032323</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>0.4270653233819087</v>
+        <v>0.4142873322152686</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>0.4926223532286538</v>
+        <v>0.5177730618392936</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>0.5961307634499646</v>
+        <v>0.565917698137017</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>0.1986237807712188</v>
+        <v>0.1967716641761759</v>
       </c>
     </row>
     <row r="55">
@@ -2309,7 +2309,7 @@
         <v>0.0809401462990942</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>-0.2997907999095441</v>
+        <v>-0.2997907999095439</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.270253797032418</v>
@@ -2327,7 +2327,7 @@
         <v>0.1331948793621852</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>-0.1593834437333079</v>
+        <v>-0.1593834437333077</v>
       </c>
     </row>
     <row r="56">
@@ -2338,31 +2338,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.4810548808644355</v>
+        <v>-0.4692718491513945</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.3565072302761981</v>
+        <v>-0.381388986737021</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.6028138081912271</v>
+        <v>-0.5943910313319869</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.2223985737197496</v>
+        <v>-0.21622726580414</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.2790070159621323</v>
+        <v>-0.2950672652014971</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.3723882304635043</v>
+        <v>-0.3730780982326067</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.2340198707026509</v>
+        <v>-0.215231469851338</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.2308688606839429</v>
+        <v>-0.2251925572667429</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.4102690362702021</v>
+        <v>-0.3901540283003052</v>
       </c>
     </row>
     <row r="57">
@@ -2373,31 +2373,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.616866679804204</v>
+        <v>0.5049381497560484</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.9681408151450579</v>
+        <v>0.8410247725061278</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.3011618664526383</v>
+        <v>0.2024427581812652</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>1.014282430258189</v>
+        <v>1.066164574250529</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.9446225023740317</v>
+        <v>0.9002892270197073</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.5137221166038678</v>
+        <v>0.4929690617493439</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.528935794223469</v>
+        <v>0.5490228981262431</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.6432471792513476</v>
+        <v>0.6219564086604975</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.2373774636318823</v>
+        <v>0.2188715881233819</v>
       </c>
     </row>
     <row r="58">
